--- a/documents/Responsibility Matrix.xlsx
+++ b/documents/Responsibility Matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>exercise attributes</t>
+  </si>
+  <si>
+    <t>feature 5</t>
+  </si>
+  <si>
+    <t>feature 8</t>
+  </si>
+  <si>
+    <t>feature 9</t>
+  </si>
+  <si>
+    <t>feature 10</t>
+  </si>
+  <si>
+    <t>feature 11</t>
+  </si>
+  <si>
+    <t>feature 12</t>
+  </si>
+  <si>
+    <t>feature 13</t>
+  </si>
+  <si>
+    <t>feature 14</t>
   </si>
 </sst>
 </file>
@@ -469,14 +493,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,25 +816,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="19"/>
-    <col min="2" max="2" width="28.15625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7890625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7890625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.47265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="19"/>
+    <col min="2" max="2" width="32.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.47265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89453125" style="19"/>
+    <col min="7" max="8" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -825,7 +849,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -836,12 +860,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -851,7 +875,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -862,7 +886,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -889,7 +913,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -906,7 +930,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -933,7 +957,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -952,7 +976,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -973,7 +997,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -990,7 +1014,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1009,7 +1033,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1028,7 +1052,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1049,7 +1073,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1068,7 +1092,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1087,7 +1111,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1104,7 +1128,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -1125,7 +1149,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -1144,7 +1168,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -1161,7 +1185,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1180,7 +1204,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>16</v>
       </c>
@@ -1199,7 +1223,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1216,7 +1240,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -1233,7 +1257,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -1252,7 +1276,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -1274,12 +1298,12 @@
       <c r="G25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -1306,11 +1330,11 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2"/>
@@ -1324,11 +1348,11 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1342,11 +1366,11 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1362,11 +1386,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="2"/>
@@ -1380,11 +1404,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="2"/>
@@ -1397,6 +1421,144 @@
       <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/Responsibility Matrix.xlsx
+++ b/documents/Responsibility Matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOUDAYOGA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1463,7 +1463,9 @@
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
         <v>3</v>
@@ -1486,7 +1488,9 @@
         <v>3</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
@@ -1506,7 +1510,9 @@
       <c r="G36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
@@ -1516,7 +1522,9 @@
         <v>46</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1541,9 @@
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
         <v>3</v>
@@ -1556,7 +1566,9 @@
         <v>3</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
